--- a/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35665C87-A343-4F18-AC63-219E2425C071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A219FB1B-D42A-4835-8A14-9F3934B02917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I3" s="11">
         <v>102</v>
